--- a/company_Ftes.xlsx
+++ b/company_Ftes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B165"/>
+  <dimension ref="A1:B230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,7 +466,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>Error</t>
         </is>
       </c>
     </row>
@@ -496,7 +496,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>Error</t>
         </is>
       </c>
     </row>
@@ -506,7 +506,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>400+</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>200+</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>90+</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1,200+</t>
+          <t>300+</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>Error</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>35</t>
         </is>
       </c>
     </row>
@@ -636,7 +636,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>&gt;250</t>
+          <t>Error</t>
         </is>
       </c>
     </row>
@@ -646,7 +646,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>~80</t>
+          <t>Error</t>
         </is>
       </c>
     </row>
@@ -656,7 +656,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>2,200+</t>
         </is>
       </c>
     </row>
@@ -696,7 +696,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>+2100</t>
         </is>
       </c>
     </row>
@@ -716,7 +716,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>Error</t>
         </is>
       </c>
     </row>
@@ -736,7 +736,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>450+</t>
         </is>
       </c>
     </row>
@@ -766,7 +766,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>300+</t>
         </is>
       </c>
     </row>
@@ -796,7 +796,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>&gt;250</t>
         </is>
       </c>
     </row>
@@ -806,7 +806,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>&gt;100</t>
         </is>
       </c>
     </row>
@@ -826,7 +826,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>150</t>
         </is>
       </c>
     </row>
@@ -836,7 +836,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>200+</t>
         </is>
       </c>
     </row>
@@ -866,7 +866,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>~50</t>
         </is>
       </c>
     </row>
@@ -896,7 +896,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>65</t>
         </is>
       </c>
     </row>
@@ -906,7 +906,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>200</t>
         </is>
       </c>
     </row>
@@ -916,7 +916,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>~60</t>
         </is>
       </c>
     </row>
@@ -926,7 +926,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>200+</t>
         </is>
       </c>
     </row>
@@ -936,7 +936,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>70</t>
         </is>
       </c>
     </row>
@@ -946,7 +946,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>~600</t>
         </is>
       </c>
     </row>
@@ -956,7 +956,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>120</t>
         </is>
       </c>
     </row>
@@ -966,7 +966,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>80</t>
         </is>
       </c>
     </row>
@@ -976,7 +976,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>65</t>
         </is>
       </c>
     </row>
@@ -996,7 +996,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>100</t>
         </is>
       </c>
     </row>
@@ -1006,7 +1006,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>450</t>
         </is>
       </c>
     </row>
@@ -1046,7 +1046,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>350 (2021)</t>
         </is>
       </c>
     </row>
@@ -1056,7 +1056,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>200</t>
         </is>
       </c>
     </row>
@@ -1066,7 +1066,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>450+ (August 2021)</t>
         </is>
       </c>
     </row>
@@ -1076,7 +1076,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>444 (2020) {{Citation needed|date|=|August 2021}}</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>180</t>
         </is>
       </c>
     </row>
@@ -1106,7 +1106,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>155</t>
         </is>
       </c>
     </row>
@@ -1116,7 +1116,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>~300</t>
         </is>
       </c>
     </row>
@@ -1136,7 +1136,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>500 (2012)</t>
+          <t>{{ca.}} 130</t>
         </is>
       </c>
     </row>
@@ -1146,7 +1146,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>70</t>
         </is>
       </c>
     </row>
@@ -1166,7 +1166,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>900+</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>265 (2021)</t>
         </is>
       </c>
     </row>
@@ -1186,7 +1186,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>360</t>
         </is>
       </c>
     </row>
@@ -1196,7 +1196,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>~80</t>
         </is>
       </c>
     </row>
@@ -1206,7 +1206,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>400+</t>
         </is>
       </c>
     </row>
@@ -1216,7 +1216,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>~50</t>
         </is>
       </c>
     </row>
@@ -1246,7 +1246,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>~300</t>
         </is>
       </c>
     </row>
@@ -1256,7 +1256,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>&gt;250</t>
         </is>
       </c>
     </row>
@@ -1276,7 +1276,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>2,700+</t>
         </is>
       </c>
     </row>
@@ -1326,7 +1326,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>160</t>
         </is>
       </c>
     </row>
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>150</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>275</t>
         </is>
       </c>
     </row>
@@ -1376,7 +1376,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>117</t>
         </is>
       </c>
     </row>
@@ -1406,7 +1406,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>190 &lt;small&gt;(2022) &lt;/small&gt;</t>
         </is>
       </c>
     </row>
@@ -1416,7 +1416,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>132</t>
         </is>
       </c>
     </row>
@@ -1426,7 +1426,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>650</t>
         </is>
       </c>
     </row>
@@ -1436,7 +1436,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>{{Increase}} 180</t>
         </is>
       </c>
     </row>
@@ -1446,7 +1446,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>350+</t>
         </is>
       </c>
     </row>
@@ -1466,7 +1466,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>150</t>
         </is>
       </c>
     </row>
@@ -1476,7 +1476,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>250 {{small|(2019)}}</t>
         </is>
       </c>
     </row>
@@ -1496,7 +1496,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>360</t>
         </is>
       </c>
     </row>
@@ -1526,7 +1526,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>{{nowrap|2,245 |small|(2020)}} {{small|(2020)}}</t>
         </is>
       </c>
     </row>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>315</t>
         </is>
       </c>
     </row>
@@ -1556,7 +1556,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>700</t>
         </is>
       </c>
     </row>
@@ -1566,7 +1566,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>800</t>
         </is>
       </c>
     </row>
@@ -1596,7 +1596,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>Error</t>
         </is>
       </c>
     </row>
@@ -1616,7 +1616,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>320</t>
         </is>
       </c>
     </row>
@@ -1636,7 +1636,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>~400</t>
         </is>
       </c>
     </row>
@@ -1646,7 +1646,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>{{Increase}} 800+ (2017)</t>
         </is>
       </c>
     </row>
@@ -1656,7 +1656,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>85+</t>
         </is>
       </c>
     </row>
@@ -1686,7 +1686,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>33</t>
         </is>
       </c>
     </row>
@@ -1696,7 +1696,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>Error</t>
         </is>
       </c>
     </row>
@@ -1706,7 +1706,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>1300</t>
         </is>
       </c>
     </row>
@@ -1716,7 +1716,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>136 (2021)</t>
         </is>
       </c>
     </row>
@@ -1736,7 +1736,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>25 (2021)</t>
+          <t>15</t>
         </is>
       </c>
     </row>
@@ -1756,7 +1756,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>284</t>
         </is>
       </c>
     </row>
@@ -1766,7 +1766,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>243</t>
         </is>
       </c>
     </row>
@@ -1776,7 +1776,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>1,976</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1806,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>146</t>
         </is>
       </c>
     </row>
@@ -1826,7 +1826,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>1,543</t>
         </is>
       </c>
     </row>
@@ -1846,7 +1846,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>58</t>
         </is>
       </c>
     </row>
@@ -1856,7 +1856,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>64</t>
         </is>
       </c>
     </row>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>83</t>
         </is>
       </c>
     </row>
@@ -1886,7 +1886,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>82</t>
         </is>
       </c>
     </row>
@@ -1916,7 +1916,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>843</t>
         </is>
       </c>
     </row>
@@ -1936,7 +1936,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>&gt;170</t>
         </is>
       </c>
     </row>
@@ -1946,7 +1946,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>40</t>
         </is>
       </c>
     </row>
@@ -1956,7 +1956,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>270</t>
         </is>
       </c>
     </row>
@@ -1986,7 +1986,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>20</t>
         </is>
       </c>
     </row>
@@ -1996,7 +1996,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>18,129 (December 2017)</t>
         </is>
       </c>
     </row>
@@ -2036,7 +2036,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>&gt;100</t>
+          <t>Error</t>
         </is>
       </c>
     </row>
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>38</t>
         </is>
       </c>
     </row>
@@ -2076,7 +2076,657 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Error</t>
+          <t>36</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>&gt;900</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>131 (2020)</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>{{Decrease}} 200+</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>650+</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>≥4,000</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>520</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>240+</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>100+ (2004)</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>254</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>5,550</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>752 (March 2020)</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>442</t>
         </is>
       </c>
     </row>
